--- a/Python/Webcam Record Excel/recordings/21 Circle long time test 2.xlsx
+++ b/Python/Webcam Record Excel/recordings/21 Circle long time test 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Documents\GitHub\TrajectoryTracking\Python\Webcam Record Excel\recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE5088B-8513-4491-90D7-0892347537A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB76192-60D3-4ADE-B2DB-0DE95757A221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,14 +169,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Y-X</a:t>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>Actual</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> &amp; Yd-Xd</a:t>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+              <a:t> Movement</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -218,6 +218,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Real</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
@@ -5062,6 +5065,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Desired</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -9918,6 +9924,7 @@
         <c:axId val="231590768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9935,6 +9942,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>X</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9997,6 +10060,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10046,6 +10164,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -10105,31 +10254,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>X-t &amp; Xd-t</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20074,8 +20198,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Error X</a:t>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>Xe</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -25180,14 +25304,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Error</a:t>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>Ye</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Y</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -32485,16 +32605,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257885</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>361400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32523,16 +32643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>233820</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>138022</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>199184</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>172659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>34052</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>136207</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>539908</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>170844</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32559,16 +32679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>551637</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>291864</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>129396</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19068</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>540069</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32595,16 +32715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>544827</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>113504</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>302373</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>122586</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>132574</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32921,8 +33041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1043"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
